--- a/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>11,27; 30,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>12,15; 29,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>28,95; 47,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>39,71; 60,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>16,12; 32,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>18,27; 39,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>32,08; 49,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>33,57; 47,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>15,82; 28,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>17,44; 30,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>32,9; 46,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>37,92; 50,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,54%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>19,41; 28,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>18,42; 26,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>30,14; 39,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>46,48; 55,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>22,31; 30,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,95; 37,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>35,13; 44,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>52,55; 59,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>22,32; 28,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,35; 31,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>33,62; 40,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>50,18; 56,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,22%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>26,44; 33,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>26,44; 33,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>37,5; 44,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>46,68; 60,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>29,41; 35,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>30,04; 36,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>37,63; 44,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,06; 64,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>28,89; 33,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>29,29; 33,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>38,74; 43,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>53,48; 61,7</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>24,94; 32,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>28,18; 35,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>34,7; 43,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>50,26; 58,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>24,39; 31,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>29,06; 36,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>38,78; 46,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>31,49; 54,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>25,64; 30,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>29,48; 35,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>37,85; 44,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>36,82; 54,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,85%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>31,33; 38,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>29,73; 36,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>42,77; 49,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>58,13; 64,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>32,9; 39,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>34,45; 40,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>44,52; 51,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>61,18; 66,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>33,28; 37,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>32,97; 37,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>44,63; 49,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>60,64; 65,11</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,89%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,98; 31,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,62; 31,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>38,88; 42,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,35; 58,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,66; 33,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>32,42; 36,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>41,39; 45,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>50,54; 59,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,28; 31,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,77; 33,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>40,78; 43,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>53,59; 58,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>52,01%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 30,01</t>
+          <t>19,49; 27,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,15; 29,37</t>
+          <t>18,49; 25,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 47,78</t>
+          <t>30,92; 39,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,71; 60,87</t>
+          <t>46,78; 55,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 32,39</t>
+          <t>22,89; 30,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,27; 39,15</t>
+          <t>29,03; 36,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,08; 49,73</t>
+          <t>35,8; 44,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,57; 47,62</t>
+          <t>49,7; 56,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 28,33</t>
+          <t>22,03; 27,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 30,09</t>
+          <t>24,74; 30,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 46,22</t>
+          <t>34,31; 40,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,92; 50,66</t>
+          <t>49,46; 54,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>53,48%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 28,38</t>
+          <t>26,44; 33,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 26,35</t>
+          <t>26,44; 33,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,14; 39,22</t>
+          <t>37,5; 44,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,48; 55,64</t>
+          <t>23,21; 60,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,31; 30,84</t>
+          <t>29,41; 35,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,95; 37,26</t>
+          <t>30,04; 36,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,13; 44,49</t>
+          <t>37,63; 44,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,55; 59,29</t>
+          <t>58,66; 63,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 28,26</t>
+          <t>28,89; 33,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,35; 31,07</t>
+          <t>29,29; 33,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 40,26</t>
+          <t>38,74; 43,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,18; 56,17</t>
+          <t>34,33; 61,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>46,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,73</t>
+          <t>24,94; 32,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,25</t>
+          <t>28,18; 35,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,5; 44,43</t>
+          <t>34,7; 43,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,68; 60,96</t>
+          <t>50,07; 58,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,41; 35,94</t>
+          <t>24,39; 31,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,04; 36,5</t>
+          <t>29,06; 36,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,63; 44,6</t>
+          <t>38,78; 46,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,06; 64,29</t>
+          <t>22,03; 54,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 33,94</t>
+          <t>25,64; 30,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,29; 33,84</t>
+          <t>29,48; 35,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38,74; 43,39</t>
+          <t>37,85; 44,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,48; 61,7</t>
+          <t>27,92; 54,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>64,32%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 32,88</t>
+          <t>31,33; 38,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,18; 35,9</t>
+          <t>29,73; 36,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,7; 43,03</t>
+          <t>42,77; 49,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,26; 58,66</t>
+          <t>58,92; 65,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,44</t>
+          <t>32,9; 39,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,06; 36,51</t>
+          <t>34,45; 40,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,78; 46,74</t>
+          <t>44,52; 51,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,49; 54,98</t>
+          <t>62,38; 72,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,99</t>
+          <t>33,28; 37,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 35,01</t>
+          <t>32,97; 37,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,85; 44,0</t>
+          <t>44,63; 49,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,82; 54,86</t>
+          <t>61,86; 69,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>54,65%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,33; 38,09</t>
+          <t>27,98; 31,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,44</t>
+          <t>27,62; 31,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,77; 49,94</t>
+          <t>38,88; 42,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,13; 64,61</t>
+          <t>40,94; 58,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,9; 39,5</t>
+          <t>29,66; 33,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,83</t>
+          <t>32,42; 36,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,52; 51,55</t>
+          <t>41,39; 45,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,18; 66,44</t>
+          <t>44,78; 60,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 37,98</t>
+          <t>29,28; 31,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,97; 37,74</t>
+          <t>30,77; 33,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>44,63; 49,55</t>
+          <t>40,78; 43,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,64; 65,11</t>
+          <t>47,23; 58,63</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>29,82%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29,43%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>40,78%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>56,49%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>31,39%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>34,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>43,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>57,25%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>30,65%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>31,92%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>42,12%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>56,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>27,98; 31,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,62; 31,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38,88; 42,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>53,35; 58,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,66; 33,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>32,42; 36,02</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,39; 45,31</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>50,54; 59,6</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>29,28; 31,96</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>30,77; 33,3</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>40,78; 43,59</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>53,59; 58,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,02</t>
+          <t>19,09; 26,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 25,38</t>
+          <t>18,75; 25,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,92; 39,39</t>
+          <t>30,6; 38,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,78; 55,62</t>
+          <t>46,69; 55,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 30,75</t>
+          <t>22,85; 30,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,38</t>
+          <t>28,44; 36,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,8; 44,05</t>
+          <t>36,1; 44,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,7; 56,08</t>
+          <t>49,8; 55,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 27,78</t>
+          <t>22,17; 27,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 30,07</t>
+          <t>24,79; 29,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,31; 40,27</t>
+          <t>34,49; 40,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,46; 54,82</t>
+          <t>49,17; 54,79</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,73</t>
+          <t>26,29; 33,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,25</t>
+          <t>26,39; 33,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,5; 44,43</t>
+          <t>37,17; 44,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,21; 60,64</t>
+          <t>24,24; 60,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 35,94</t>
+          <t>29,26; 36,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,04; 36,5</t>
+          <t>30,04; 36,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,63; 44,6</t>
+          <t>37,8; 44,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,66; 63,89</t>
+          <t>58,62; 64,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 33,94</t>
+          <t>29,0; 33,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,29; 33,84</t>
+          <t>29,38; 33,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,74; 43,39</t>
+          <t>38,54; 43,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,33; 61,05</t>
+          <t>34,27; 61,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,94; 32,88</t>
+          <t>24,75; 32,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 35,9</t>
+          <t>28,03; 35,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,7; 43,03</t>
+          <t>34,79; 43,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,07; 58,68</t>
+          <t>50,15; 59,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,44</t>
+          <t>24,35; 31,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 36,51</t>
+          <t>28,84; 36,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,78; 46,74</t>
+          <t>38,67; 47,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,03; 54,55</t>
+          <t>18,06; 53,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,99</t>
+          <t>25,38; 30,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,48; 35,01</t>
+          <t>29,52; 34,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,85; 44,0</t>
+          <t>38,03; 44,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,92; 54,35</t>
+          <t>26,78; 54,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,33; 38,09</t>
+          <t>31,62; 38,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,44</t>
+          <t>29,38; 36,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,77; 49,94</t>
+          <t>42,41; 49,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,92; 65,54</t>
+          <t>58,75; 65,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 39,5</t>
+          <t>32,69; 39,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,83</t>
+          <t>34,55; 40,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,52; 51,55</t>
+          <t>44,41; 51,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,38; 72,64</t>
+          <t>62,43; 73,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 37,98</t>
+          <t>32,96; 37,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,97; 37,74</t>
+          <t>32,97; 37,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,63; 49,55</t>
+          <t>44,34; 49,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,86; 69,21</t>
+          <t>61,66; 68,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,76</t>
+          <t>28,17; 31,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,62; 31,15</t>
+          <t>27,58; 31,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,88; 42,61</t>
+          <t>38,95; 42,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,94; 58,29</t>
+          <t>41,03; 58,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,66; 33,15</t>
+          <t>29,68; 33,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,42; 36,02</t>
+          <t>32,54; 36,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,39; 45,31</t>
+          <t>41,56; 45,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,78; 60,11</t>
+          <t>44,31; 60,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 31,96</t>
+          <t>29,41; 31,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,3</t>
+          <t>30,56; 33,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,78; 43,59</t>
+          <t>40,75; 43,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,23; 58,63</t>
+          <t>47,86; 58,51</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una revisión o chequeo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>110066</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>132581</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>183778</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>312163</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>141453</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>205580</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>217580</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>344669</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>251519</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>338162</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>401358</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>656832</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91211; 128261</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>113616; 154529</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>160637; 204278</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>285397; 341364</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>122943; 161926</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>180830; 229410</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>196503; 240977</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>324482; 364191</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>225264; 280648</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>307847; 371557</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>368809; 435504</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>620947; 691943</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>216836</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>257952</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>332161</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>550276</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>262728</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>299201</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>357344</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>577991</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>479564</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>557154</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>689505</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1128267</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>189831; 241465</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>228771; 287253</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>303452; 359651</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>283013; 707417</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>235301; 290580</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>270001; 330491</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>327463; 386317</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>552352; 604009</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>442575; 516044</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>518878; 598587</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>648500; 730050</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>723072; 1287547</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>156139</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>203686</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>214090</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>374875</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>162393</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>220068</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>247820</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>373062</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>318531</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>423754</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>461910</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>747937</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>134884; 177905</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>178278; 228247</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>191449; 239769</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>344157; 405685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>142356; 183054</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>195410; 247079</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>224196; 272703</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>166553; 494956</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>286762; 349580</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>387804; 458797</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>429784; 497459</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>430777; 877681</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1507</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>249290</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>263549</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>356375</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>553896</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>293490</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>351763</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>420929</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>702120</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>542781</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>615311</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>777304</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1256015</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>224910; 275566</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>236740; 291057</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>327673; 384435</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>522867; 583860</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>265830; 320468</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>322382; 382263</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>389430; 453327</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>663585; 780170</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>502392; 575982</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>573347; 654745</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>731409; 816474</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1204215; 1334932</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>732331</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>857768</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1086404</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1791211</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>860064</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1076613</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1243673</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1997841</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1592395</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1934381</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2330077</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3789051</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>692031; 776288</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>803968; 910699</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1037677; 1143813</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1376402; 1951046</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>813224; 914498</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1023560; 1132517</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1191683; 1299392</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1585742; 2149709</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1528215; 1660205</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1851991; 2006171</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2254138; 2403527</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3318150; 4056925</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>